--- a/va_facility_data_2025-02-20/Sergeant Ernest I. \"Boots\" Thomas VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Sergeant%20Ernest%20I.%20%22Boots%22%20Thomas%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Sergeant Ernest I. \"Boots\" Thomas VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Sergeant%20Ernest%20I.%20%22Boots%22%20Thomas%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R7585cbe7c17843dca26878053d79aac7"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R4803ae42486b4afc91837235d5877c5d"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R293425351e1649c4813f5af021c6f8bc"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R0efa757a54084190acb4fa781d58b621"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R59cda88e8f8644c6bccf348182032f9d"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rca2ff6c7f8fa47c8aa2a01e0d9e4d01a"/>
   </x:sheets>
 </x:workbook>
 </file>
